--- a/システム論理説明/システム構成.xlsx
+++ b/システム論理説明/システム構成.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishidayuki/Desktop/気象データ明細出力_システム全容doc/システム論理説明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD108AB-A598-F740-9F45-D2DD21661B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F5A6AE-A396-4D46-828C-5B5BB7659532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム概要" sheetId="6" r:id="rId1"/>
     <sheet name="システム構成" sheetId="1" r:id="rId2"/>
-    <sheet name="オンライン処理" sheetId="3" r:id="rId3"/>
-    <sheet name="バッチ処理" sheetId="4" r:id="rId4"/>
-    <sheet name="ファイルダウンロード方式" sheetId="5" r:id="rId5"/>
+    <sheet name="オンライン処理(サーバーサイドAPI)" sheetId="3" r:id="rId3"/>
+    <sheet name="バッチ処理(サーバーサイドAPI)" sheetId="4" r:id="rId4"/>
+    <sheet name="ファイルダウンロード方式(サーバーサイドAPI)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>気象データ明細出力_システム処理構成</t>
     <rPh sb="0" eb="2">
@@ -95,29 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・バックエンドシステム：キューの登録と、ビジネスロジックを含んだバッチ処理を行うシステム</t>
-    <rPh sb="0" eb="1">
-      <t>・</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>フクンダ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>オコナウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オンラインの処理では、主に、</t>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オモニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>これら2点の業務を行う。</t>
     <rPh sb="4" eb="5">
       <t>テn</t>
@@ -155,26 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・画面の処理</t>
-    <rPh sb="1" eb="3">
-      <t>ガメンン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クライアント共通基幹処理</t>
-    <rPh sb="0" eb="1">
-      <t>・</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キカn</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>これらでシステムを分けています。</t>
     <rPh sb="9" eb="10">
       <t>ワケ</t>
@@ -208,31 +165,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バックエンド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>フロント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本システムには、キューを貯めるテーブルがあり、そのキューをを元に動作をする</t>
-    <rPh sb="0" eb="1">
-      <t>ホn</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>タメル</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>モトニ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ドウサ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -312,16 +249,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー単位での並列動作を許しています。</t>
-    <rPh sb="8" eb="12">
-      <t>ヘイレテゥ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ユルセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -403,46 +330,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>①</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新規作成バッチ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：新規に気象データファイルを作成するバッチ</t>
-    </r>
-    <rPh sb="1" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -481,22 +368,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①の「新規作成バッチ」は溜まっているキューを元に動作をし続けますが、</t>
-    <rPh sb="3" eb="7">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>タマッテ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>モトニ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>②の「エラーファイル作成バッチ」は、一つのキューの処理が完了したら、動作を終了します。</t>
     <rPh sb="18" eb="19">
       <t>ヒトテゥ</t>
@@ -523,56 +394,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①の「新規作成バッチ」の処理を並列に動作させることは禁止にしていますが、</t>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘイレテゥ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キンセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一人のユーザーが、①「新規作成バッチ」と②「エラーファイル作成バッチ」、これらを並列に動作させることは許しています。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヘイレテゥ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ユルセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジョブキューテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -611,16 +432,6 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本システムのオンラインアーキテクチャでは、Djangoを採用しています。</t>
-    <rPh sb="0" eb="1">
-      <t>ホンシス</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -745,16 +556,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バイト配列を作成します。そのバイト配列をJSONでフロントシステムに送信し、</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ソウシn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フロントシステム側でファイルを再構築し、フロントシステム側のプロジェクトディレクトリにファイルを配置します。</t>
     <rPh sb="8" eb="9">
       <t>ガワ</t>
@@ -831,6 +632,287 @@
   </si>
   <si>
     <t>3.出力ファイルレイアウト例</t>
+  </si>
+  <si>
+    <r>
+      <t>システムURL(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.md-data.net/sendPost/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・サーバーサイドAPI：キューの登録と、ビジネスロジックを含んだバッチ処理を行うシステム</t>
+    <rPh sb="0" eb="1">
+      <t>・</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フクンダ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オコナウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面の処理：フロントシステム</t>
+    <rPh sb="1" eb="3">
+      <t>ガメンン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クライアント共通基幹処理：サーバーサイドAPI</t>
+    <rPh sb="0" eb="1">
+      <t>・</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キカn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーサイドAPIのオンラインの処理では、主に</t>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オモニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーサイド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本システムには、ユーザーリクエストのキューを貯めるテーブルがあり、そのキューをを元に動作をする</t>
+    <rPh sb="0" eb="1">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タメル</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モトニ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本システムのバッチ基盤では、ユーザーID単位での並列動作を許しています。</t>
+    <rPh sb="0" eb="1">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ヘイレテゥ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ユルセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(1ユーザーでの並列処理を許可しない理由は、1ユーザーIDでの並列を許可してしまうと</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>サーバーの負荷が増大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>するためです。)</t>
+    </r>
+    <rPh sb="8" eb="12">
+      <t>ヘイレテゥ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新規ファイル作成バッチ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：新規に気象データファイルを作成するバッチ</t>
+    </r>
+    <rPh sb="1" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人のユーザーが、①「新規作成バッチ」と②「エラーファイル作成バッチ」、これらを並列に動作させることは許可しています。(サーバーに影響が少ないため)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘイレテゥ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キョカシテ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>スクナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①の「新規ファイル作成バッチ」は溜まっているキューを元に動作をし続けますが、</t>
+    <rPh sb="3" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タマッテ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モトニ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①の「新規ファイル作成バッチ」の処理を並列に動作させることは禁止にしていますが、</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘイレテゥ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キンセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーサイドAPIのオンラインアーキテクチャでは、Djangoを採用しています。</t>
+    <rPh sb="33" eb="35">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイト配列を作成します。そのバイト配列をJSONで通常の文字列としてフロントシステムに送信し、</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>モゼィ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2330,13 +2412,16 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>バックエンドシステム</a:t>
+            <a:t>サーバーサイド</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -3147,13 +3232,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>115454</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>394471</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>125461</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3210,13 +3295,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>468499</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>204987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>615757</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>41780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3270,13 +3355,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>78679</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>173183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>153940</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>9620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3339,13 +3424,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>219748</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>200506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>498764</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>95057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3408,13 +3493,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>113915</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>104294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>529167</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>229755</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3471,13 +3556,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>355985</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>96211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>11130</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>182801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3530,13 +3615,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>519545</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>211667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>519545</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>211667</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3584,13 +3669,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28864</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>48106</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>144703</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3647,13 +3732,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>112375</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>208589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>527627</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>211667</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3726,13 +3811,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>392930</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>8082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>48075</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>125077</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3790,13 +3875,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>586827</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>35034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>525517</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>43793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3840,13 +3925,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>411655</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>183926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>13471</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>131374</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3911,13 +3996,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>474736</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>59277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>604344</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>105105</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3971,13 +4056,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>478239</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>202916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>595586</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>218965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4031,13 +4116,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>432675</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>82326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>595586</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>29775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4119,13 +4204,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>73440</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>12132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>376619</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>131379</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4179,13 +4264,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85702</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>155773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>388881</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>47296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4239,14 +4324,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>455445</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>122621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28372</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>156605</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>156604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4289,13 +4374,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>481743</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>127592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>599090</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4349,13 +4434,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>444937</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>33277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>210207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4429,13 +4514,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76943</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>190807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>380123</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>82330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4489,13 +4574,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>89205</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>106724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>392385</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>225971</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4549,13 +4634,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3503</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>616606</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>161159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4599,13 +4684,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>543034</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>87587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>543034</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>175172</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5194,21 +5279,16 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>バックエンドシステム</a:t>
+            <a:t>サーバーサイド</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6392,15 +6472,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F7D51F-5FF9-0049-A3D4-BE219A225C44}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6411,52 +6491,57 @@
     </row>
     <row r="3" spans="1:4" ht="19">
       <c r="B3" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="8" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="C81" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="8" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -6471,7 +6556,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -6504,7 +6589,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6517,32 +6602,32 @@
     </row>
     <row r="28" spans="3:10">
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="3:10">
       <c r="C29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="3:10">
       <c r="C30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -6554,10 +6639,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14613239-0AFF-A840-9625-1EA23D1CFAB5}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="132" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -6578,44 +6663,44 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="6" spans="1:4">
-      <c r="C6" t="s">
-        <v>9</v>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" t="s">
-        <v>10</v>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6627,10 +6712,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD6A5E1-43DC-9645-BD19-A608B502712C}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -6653,117 +6738,122 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="C21" t="s">
-        <v>33</v>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="C24" t="s">
-        <v>35</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="C27" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="C29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10">
-      <c r="E34" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="5:10">
-      <c r="J43" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="4:12">
-      <c r="L49" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="4:12">
-      <c r="D54" s="1" t="s">
-        <v>43</v>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="E35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="J44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="4:12">
+      <c r="L50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="4:12">
+      <c r="D55" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6777,8 +6867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A99761-CE5F-4344-9B4A-8379F69AA498}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -6801,74 +6891,74 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="3:10">
       <c r="E25" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/システム論理説明/システム構成.xlsx
+++ b/システム論理説明/システム構成.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishidayuki/Desktop/気象データ明細出力_システム全容doc/システム論理説明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F5A6AE-A396-4D46-828C-5B5BB7659532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A64DA2-7932-C340-9F11-895872990192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="オンライン処理(サーバーサイドAPI)" sheetId="3" r:id="rId3"/>
     <sheet name="バッチ処理(サーバーサイドAPI)" sheetId="4" r:id="rId4"/>
     <sheet name="ファイルダウンロード方式(サーバーサイドAPI)" sheetId="5" r:id="rId5"/>
+    <sheet name="暗号化方式" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,20 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
-  <si>
-    <t>気象データ明細出力_システム処理構成</t>
-    <rPh sb="0" eb="2">
-      <t>キショウ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>##システム構成</t>
     <phoneticPr fontId="1"/>
@@ -79,22 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・フロントシステム：画面の処理とREST通信を行うシステム</t>
-    <rPh sb="10" eb="12">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ツウシn</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>これら2点の業務を行う。</t>
     <rPh sb="4" eb="5">
       <t>テn</t>
@@ -111,13 +83,6 @@
     <t>※システムの分割について</t>
     <rPh sb="6" eb="8">
       <t>ブンカテゥ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このシステムはWebブラウザ用のクライアントしか無いですが、</t>
-    <rPh sb="24" eb="25">
-      <t xml:space="preserve">ナイガ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -579,16 +544,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>気象データ明細出力_システム概要</t>
-    <rPh sb="0" eb="2">
-      <t>キショウ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>メイサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.概要</t>
   </si>
   <si>
@@ -622,13 +577,7 @@
     <t>クライアントは、「Webブラウザ」のみ。</t>
   </si>
   <si>
-    <t>下記がメインの業務画面で、この画面で条件を指定して「Go」ボタンを押下すると、ファイル出力処理が開始される。</t>
-  </si>
-  <si>
     <t>ファイルダウンロードリンクを押下すると、</t>
-  </si>
-  <si>
-    <t>気象データの明細が書き込まれたエクセルファイルをダウンロードすることができる。</t>
   </si>
   <si>
     <t>3.出力ファイルレイアウト例</t>
@@ -914,12 +863,582 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>気象データ明細出力_システム構成</t>
+    <rPh sb="0" eb="2">
+      <t>キショウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気象データ明細出力_システム構成</t>
+    <rPh sb="0" eb="2">
+      <t>キショウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フロントシステム：画面処理とREST通信を行うシステム</t>
+    <rPh sb="10" eb="12">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツウシn</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このシステムはWebブラウザ用のクライアントのみですが、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.メールレイアウト例</t>
+    <rPh sb="10" eb="11">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチ処理の中の一つのキューの処理が終了すると、ファイル情報が記載されたメールが、アカウントのメールアドレス宛に送信されます。</t>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒトテゥ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ソウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.ファイルダウンロード処理時間の課題と解決</t>
+    <rPh sb="17" eb="19">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイケテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記がメインの業務画面で、この画面で条件を指定して「気象データファイル作成」ボタンを押下すると、ファイル出力処理が開始されます。</t>
+    <rPh sb="26" eb="28">
+      <t>キショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気象データの明細が書き込まれたエクセルファイルをダウンロードすることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本システムでは、ファイルのバイナリ文字列をString文字列としてREST送信を行なっていますが、その際に、</t>
+    <rPh sb="0" eb="1">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>モゼィ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>モゼィ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウシn</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オコナッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、初期の実装時は、1バイトずつO(N)ループでString配列に要素を追加するという方式で実装を行なっていました。</t>
+    <rPh sb="5" eb="7">
+      <t>ショキノズ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハイレテゥ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オコナッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pthonでは単純に「バイナリ文字列-&gt;String文字列」という変換はできませんでした。</t>
+    <rPh sb="7" eb="9">
+      <t>タンジュn</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>モジレテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、大量データファイルの場合、O(N)ループを回している時間が非常に遅いため、画面からファイルをダウンロードする際に非常に時間がかかってしまう状態でした。</t>
+    <rPh sb="4" eb="6">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マワセィ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、ファイルのバイト配列を一定の要素数で分割をして、その分割した配列数分のプロセスを立ち上げて、並列処理を行うことで実行時間を短くしました。</t>
+    <rPh sb="16" eb="18">
+      <t>イッテ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブンカテゥ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハイレテゥ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t xml:space="preserve">ブン </t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タチアゲテ</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>ヘイレテゥ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オコナウ</t>
+    </rPh>
+    <rPh sb="61" eb="65">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ミジカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>具体的には、</t>
+    <rPh sb="0" eb="3">
+      <t>グタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4, 5, 6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7, 8, 9, 10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記の方式で行なっております。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナッテオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記の処理方式でファイルダウンロードを行なった結果、処理完了までにかかる時間を約半分に抑えることができました。</t>
+    <rPh sb="0" eb="1">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナッタ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハンブn</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オサエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(しかし、あまりにも大量データの場合は、依然と処理に時間がかかってしまうという現状です。)</t>
+    <rPh sb="10" eb="12">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イゼn</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>##暗号化方式</t>
+    <rPh sb="2" eb="7">
+      <t>アンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースではなく、プロパティで管理をしている重要データの場合は、プレーンテキストではなく暗号文を記述しています。</t>
+    <rPh sb="17" eb="19">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キジュテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Githubで外部に見えてしまうため)</t>
+    <rPh sb="8" eb="10">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミエテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その暗号・復号化の方法として、以下のやり方で運用を行なっております。</t>
+    <rPh sb="5" eb="7">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>k</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>本システムの暗号・復号化には、16バイトの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「暗号化キー」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「初期ベクトル」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を用います。</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ホンス</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モチイマス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここで、暗号化キーと初期ベクトルが外部に見えてしまっては、暗号文にしていてもすぐに解読されてしまうため、</t>
+    <rPh sb="4" eb="7">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミエテ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化キーと初期ベクトルをGitで管理せず、サーバーに直接に手で打ち込むという方式で運用を行なっております</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">テ </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウチコム</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オコナッテオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発環境</t>
+    <rPh sb="0" eb="4">
+      <t>カイハテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本番環境</t>
+    <rPh sb="0" eb="2">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイハテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化キーと初期ベクトルで、</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要データの暗号文を作成</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨウデ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Github上では暗号化キーと初期ベクトルは管理しない</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化キーと初期ベクトル</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>をサーバー上に直打ち</t>
+    <rPh sb="7" eb="9">
+      <t>ジカウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直打ちした暗号化キーと初期ベクトルでサーバーを動作させる</t>
+    <rPh sb="0" eb="2">
+      <t>ジカウティ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>アンゴウカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>具体的な運用の流れは下記を参照してください。</t>
+    <rPh sb="0" eb="3">
+      <t>グタイテキナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カキウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要データの暗号文と復号化ロジックをGithubで管理</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨウデ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,6 +1478,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -968,7 +1496,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1013,11 +1541,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1031,6 +1598,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1053,13 +1624,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>43674</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>565925</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1077,15 +1648,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1346200" y="3292475"/>
-          <a:ext cx="10769600" cy="4962525"/>
+          <a:off x="1384794" y="3358515"/>
+          <a:ext cx="8568971" cy="5074285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1164,16 +1740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1191,13 +1767,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6492875" y="4543425"/>
-          <a:ext cx="1981200" cy="587375"/>
+          <a:off x="4255135" y="5864225"/>
+          <a:ext cx="1973580" cy="602615"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -46474"/>
-            <a:gd name="adj2" fmla="val 75473"/>
+            <a:gd name="adj1" fmla="val -70670"/>
+            <a:gd name="adj2" fmla="val -50976"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1225,17 +1801,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>Go</a:t>
-          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1255,13 +1820,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>89748</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526835</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1282,15 +1847,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1355724" y="9779000"/>
-          <a:ext cx="10810876" cy="4924425"/>
+          <a:off x="1435948" y="9779000"/>
+          <a:ext cx="8514287" cy="4924425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1306,16 +1876,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>631825</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1333,13 +1903,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7143750" y="12179300"/>
-          <a:ext cx="2911475" cy="962025"/>
+          <a:off x="7842250" y="12166600"/>
+          <a:ext cx="5378450" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -21705"/>
-            <a:gd name="adj2" fmla="val 92863"/>
+            <a:gd name="adj1" fmla="val -61836"/>
+            <a:gd name="adj2" fmla="val 98144"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1517,6 +2087,46 @@
             </a:rPr>
             <a:t>」になる</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>その後「ファイル作成中」のステータスでバッチ処理が実行中であることを示す。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1680,14 +2290,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>170833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>584199</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>135990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1706,15 +2316,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035174" y="16306800"/>
-          <a:ext cx="6626225" cy="1666875"/>
+          <a:off x="2024783" y="16357560"/>
+          <a:ext cx="6595052" cy="1581521"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1731,15 +2346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
+      <xdr:colOff>535420</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>127288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
+      <xdr:colOff>554470</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>130463</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1757,8 +2372,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7000875" y="15960725"/>
-          <a:ext cx="4057650" cy="688975"/>
+          <a:off x="7231784" y="16083106"/>
+          <a:ext cx="4036868" cy="695902"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1908,8 +2523,49 @@
               <a:ea typeface="+mn-lt"/>
               <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>ステータスが「ファイル作成済み」となって、ダウンロードリンクが表示される。</a:t>
+            <a:t>ステータスが「済」となって、ダウンロードリンクが表示される。</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>同時にメール送信も行います</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1963,6 +2619,56 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15120</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>30239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>125025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B51238-A2E1-7E28-9C70-5A861C90702A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8179406" y="19110477"/>
+          <a:ext cx="7604880" cy="8032286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2268,8 +2974,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7528560" y="3200400"/>
-          <a:ext cx="2138680" cy="1456080"/>
+          <a:off x="7556500" y="3136900"/>
+          <a:ext cx="2146300" cy="1425600"/>
           <a:chOff x="7759700" y="2946400"/>
           <a:chExt cx="2146300" cy="1425600"/>
         </a:xfrm>
@@ -4684,14 +5390,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>543034</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>87587</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>175174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>543034</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>175172</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>35034</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4706,8 +5412,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1891862" y="11946759"/>
-          <a:ext cx="0" cy="543034"/>
+          <a:off x="1891862" y="13628415"/>
+          <a:ext cx="0" cy="543033"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4732,6 +5438,198 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>490502</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>83798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>607849</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="下矢印 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AADDED-6B9B-6245-B258-55FA381AC8D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1839330" y="12170695"/>
+          <a:ext cx="117347" cy="243772"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485227</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>213704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>648138</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC98230-DD33-5048-89C5-C916AA7CF10F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1159641" y="12528325"/>
+          <a:ext cx="2860566" cy="630622"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>作成ファイルと、ファイルに関する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>情報を記載したメールをユーザーに送信</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485247</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>17233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>602594</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>33281</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="下矢印 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8E42E2-3BE0-5E42-AC30-87984D374063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1834075" y="13242750"/>
+          <a:ext cx="117347" cy="243772"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4983,7 +5881,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>314960</xdr:colOff>
+      <xdr:colOff>284480</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>53339</xdr:rowOff>
     </xdr:to>
@@ -5135,7 +6033,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9682480" y="5801360"/>
+          <a:off x="9763760" y="5801360"/>
           <a:ext cx="568960" cy="368960"/>
           <a:chOff x="7759700" y="2946400"/>
           <a:chExt cx="2146300" cy="1425600"/>
@@ -5971,7 +6869,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>528320</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -6021,7 +6919,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>81280</xdr:colOff>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
@@ -6168,6 +7066,713 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>345440</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>345440</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B24B550-F941-174E-938A-5563629873A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4368800" y="11094720"/>
+          <a:ext cx="0" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B046A8-17CB-1C4B-B5EE-AA1E31D978A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5811520" y="11145520"/>
+          <a:ext cx="3850640" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>一定の要素数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>実際のサーバーではバイト配列の要素</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>&gt;&gt;3)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>で配列を分割</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>345440</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>345440</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A58DAF-E0EF-8846-AE66-BD28F79E01AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4368800" y="11826240"/>
+          <a:ext cx="0" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>81279</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>71119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>694912</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>207232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="下矢印 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD05E2A-D658-E14B-9D39-2A9866B16AE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3672839" y="11993879"/>
+          <a:ext cx="136113" cy="613633"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="角丸四角形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F10A5C-28B6-2C44-B877-BCA0C08D3913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4582160" y="12385040"/>
+          <a:ext cx="3850640" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>作成した配列分のプロセスを立ち上げて</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>並列処理を行う</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>307340</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA09B093-A6E1-9F40-81E0-A4DA4E5B9CAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="558800" y="3616960"/>
+          <a:ext cx="1089660" cy="1117600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>589280</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>74320</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BDA8F4-8E3D-364A-871D-DF70A7EDB5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="589280" y="6604000"/>
+          <a:ext cx="1554480" cy="1019200"/>
+          <a:chOff x="7759700" y="2946400"/>
+          <a:chExt cx="2146300" cy="1425600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="32" name="図 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{731A22F6-CCE9-9622-E24E-9BF9EE99B26E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7759700" y="2946400"/>
+            <a:ext cx="1425600" cy="1425600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="33" name="図 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF8A9B5-F68D-A4FE-AAFB-2017EA2DF86A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8915400" y="3060700"/>
+            <a:ext cx="990600" cy="1270000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>201913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CC78E7-50C9-7C30-E516-EB37DFD98AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5466080" y="5029200"/>
+          <a:ext cx="2346960" cy="1319513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609060</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130355</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="下矢印 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92F5A1B-9415-C141-9EB4-63942A637F34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17602791" flipH="1">
+          <a:off x="3665270" y="3917178"/>
+          <a:ext cx="165275" cy="2254335"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>599440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>234604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>599440</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E09B63-BB58-124F-9FCD-3307B5B94188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="599440" y="4948844"/>
+          <a:ext cx="0" cy="872836"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>42919</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238299</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="下矢印 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F711B07-D9E3-5B4D-B0A7-10C3817073BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4270738" flipH="1">
+          <a:off x="3762123" y="5177733"/>
+          <a:ext cx="183931" cy="2257860"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6470,78 +8075,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F7D51F-5FF9-0049-A3D4-BE219A225C44}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" thickBot="1">
+    <row r="1" spans="1:9" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="19">
+    <row r="3" spans="1:9" ht="19">
       <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
+    <row r="11" spans="1:9">
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:9">
       <c r="C14" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
       <c r="C81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="C82" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
       <c r="B84" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6555,15 +8171,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6574,27 +8190,27 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="3:10">
@@ -6602,32 +8218,32 @@
     </row>
     <row r="28" spans="3:10">
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="3:10">
       <c r="C29" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="3:10">
       <c r="C30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6642,14 +8258,14 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="132" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6660,47 +8276,47 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -6712,17 +8328,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD6A5E1-43DC-9645-BD19-A608B502712C}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6733,127 +8349,127 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="C20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="C22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="C26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="J44" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="4:12">
       <c r="L50" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="4:12">
-      <c r="D55" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12">
+      <c r="D61" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6865,17 +8481,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A99761-CE5F-4344-9B4A-8379F69AA498}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6886,79 +8506,313 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="E24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="3:10">
       <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="C33" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="C34" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="C35" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="3:10">
-      <c r="C32" s="1" t="s">
+    <row r="36" spans="2:14">
+      <c r="C36" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="1" t="s">
-        <v>45</v>
+    <row r="38" spans="2:14">
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="C39" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="C40" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="C41" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="C44" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="E47" s="11">
+        <v>1</v>
+      </c>
+      <c r="F47" s="11">
+        <v>2</v>
+      </c>
+      <c r="G47" s="11">
+        <v>3</v>
+      </c>
+      <c r="H47" s="11">
+        <v>4</v>
+      </c>
+      <c r="I47" s="11">
+        <v>5</v>
+      </c>
+      <c r="J47" s="11">
+        <v>6</v>
+      </c>
+      <c r="K47" s="11">
+        <v>7</v>
+      </c>
+      <c r="L47" s="11">
+        <v>8</v>
+      </c>
+      <c r="M47" s="11">
+        <v>9</v>
+      </c>
+      <c r="N47" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="F50" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="F54" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="F55" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="F56" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9763009B-5194-5647-9DDC-FB63DD3CB246}">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="19" thickBot="1">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19" thickBot="1">
+      <c r="B16" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="19" thickBot="1">
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="19" thickBot="1">
+      <c r="I22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="19" thickBot="1">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" ht="19" thickBot="1">
+      <c r="B27" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/システム論理説明/システム構成.xlsx
+++ b/システム論理説明/システム構成.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishidayuki/Desktop/気象データ明細出力_システム全容doc/システム論理説明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A64DA2-7932-C340-9F11-895872990192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C715327-20E4-DB41-88C3-BB4392C8D9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム概要" sheetId="6" r:id="rId1"/>
@@ -1000,16 +1000,6 @@
     </rPh>
     <rPh sb="52" eb="53">
       <t>オコナッテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pthonでは単純に「バイナリ文字列-&gt;String文字列」という変換はできませんでした。</t>
-    <rPh sb="7" eb="9">
-      <t>タンジュn</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>モジレテゥ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1402,7 +1392,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>具体的な運用の流れは下記を参照してください。</t>
+    <t>「バイナリ文字列-&gt;String文字列」という変換は難しく、</t>
+    <rPh sb="16" eb="19">
+      <t>モジレテゥ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ムズカシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>具体的な運用の流れは下記を参照してしていただければ幸いです。</t>
     <rPh sb="0" eb="3">
       <t>グタイテキナ</t>
     </rPh>
@@ -1418,17 +1418,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>重要データの暗号文と復号化ロジックをGithubで管理</t>
+    <t>重要データの「暗号文」と「復号化ロジック」をGithubで管理</t>
     <rPh sb="0" eb="2">
       <t>ジュウヨウデ</t>
     </rPh>
-    <rPh sb="6" eb="9">
+    <rPh sb="7" eb="10">
       <t>アンゴウ</t>
     </rPh>
-    <rPh sb="10" eb="13">
+    <rPh sb="13" eb="16">
       <t>フクゴウ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="29" eb="31">
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1584,7 +1584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1602,6 +1602,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1660,8 +1661,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384794" y="3358515"/>
-          <a:ext cx="8568971" cy="5074285"/>
+          <a:off x="1389874" y="3292475"/>
+          <a:ext cx="8599451" cy="4962525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1680,13 +1681,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99290</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1704,8 +1705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5073650" y="8350250"/>
-          <a:ext cx="492125" cy="1362075"/>
+          <a:off x="5073650" y="8426450"/>
+          <a:ext cx="492125" cy="842240"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1817,85 +1818,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>89748</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>526835</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB661380-241B-1C42-8B0F-CF4FB66F7D25}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2BBF4241-4907-AAEE-5D28-8ECB12860803}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1435948" y="9779000"/>
-          <a:ext cx="8514287" cy="4924425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5">
+        <xdr:cNvPr id="7" name="下矢印 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1294A8B7-0E65-D546-8D36-7F525135A80D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54449962-E567-0F45-88BE-1CB2FE2B75DF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{25C51E91-FE7C-B0AB-9CAA-B3B96F171171}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BE3BD80C-6790-40A9-B473-2C336FC50F8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1903,266 +1847,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7842250" y="12166600"/>
-          <a:ext cx="5378450" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -61836"/>
-            <a:gd name="adj2" fmla="val 98144"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>ファイル作成開始直後は、ファイル作成ステータスが、</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ファイル作成開始前</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>」になる</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-lt"/>
-            <a:cs typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>その後「ファイル作成中」のステータスでバッチ処理が実行中であることを示す。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-lt"/>
-            <a:cs typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="下矢印 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54449962-E567-0F45-88BE-1CB2FE2B75DF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BE3BD80C-6790-40A9-B473-2C336FC50F8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5092700" y="14884400"/>
-          <a:ext cx="492125" cy="1304925"/>
+          <a:off x="5092700" y="14706601"/>
+          <a:ext cx="492125" cy="901700"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -2288,16 +1974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>170833</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>43674</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>56533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>584199</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>135990</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>615463</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>21690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2316,7 +2002,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2328,8 +2014,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2024783" y="16357560"/>
-          <a:ext cx="6595052" cy="1581521"/>
+          <a:off x="1389874" y="15855333"/>
+          <a:ext cx="6629689" cy="1565357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2347,14 +2033,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>535420</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>127288</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>12988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>554470</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>130463</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>16163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2372,8 +2058,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7231784" y="16083106"/>
-          <a:ext cx="4036868" cy="695902"/>
+          <a:off x="7266420" y="15583188"/>
+          <a:ext cx="4057650" cy="688975"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2575,13 +2261,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2601,7 +2287,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2627,13 +2313,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15120</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>30239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>125025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2650,7 +2336,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2671,6 +2357,608 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>43674</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>450074</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>214607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488E4133-5040-C4AB-FFC1-4B15CCE8764D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389874" y="9423400"/>
+          <a:ext cx="7810500" cy="1789407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>43674</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>80727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>450074</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>17404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B801F412-8EDC-AACE-7E41-D0066466FE5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389874" y="12679127"/>
+          <a:ext cx="7810500" cy="1765477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>580159</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>384464</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>168563</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1294A8B7-0E65-D546-8D36-7F525135A80D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{25C51E91-FE7C-B0AB-9CAA-B3B96F171171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7311159" y="9889837"/>
+          <a:ext cx="3842905" cy="591126"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61836"/>
+            <a:gd name="adj2" fmla="val 98144"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>ファイル作成開始直後は、ファイル作成ステータスが、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ファイル作成開始前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>」になる</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>10390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="下矢印 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818F1821-CCDC-714E-AA01-4F04FF9F48EA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CF953308-495C-BDCD-E623-03FCB6D6100B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="11537950"/>
+          <a:ext cx="492125" cy="842240"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97559</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>212437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形吹き出し 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D859CFD-FFE5-D54E-9D45-0D11DE6204DE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{25C51E91-FE7C-B0AB-9CAA-B3B96F171171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7501659" y="13039437"/>
+          <a:ext cx="3179041" cy="498763"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61836"/>
+            <a:gd name="adj2" fmla="val 98144"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>直後に「作成中」のステータスになり、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>ファイルが作成中は「進捗率」が表示される</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5632,6 +5920,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96182E0E-3E4E-7E74-D264-62449EFCCD2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="12179300"/>
+          <a:ext cx="1422400" cy="1422400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5792,13 +6130,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>154940</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5813,7 +6151,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1391920" y="8293100"/>
+          <a:off x="1391920" y="6169660"/>
           <a:ext cx="1076960" cy="284480"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
@@ -6033,8 +6371,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9763760" y="5801360"/>
-          <a:ext cx="568960" cy="368960"/>
+          <a:off x="9794240" y="5681980"/>
+          <a:ext cx="571500" cy="358800"/>
           <a:chOff x="7759700" y="2946400"/>
           <a:chExt cx="2146300" cy="1425600"/>
         </a:xfrm>
@@ -8075,15 +8413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F7D51F-5FF9-0049-A3D4-BE219A225C44}">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R78" sqref="R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" thickBot="1">
+    <row r="1" spans="1:10" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -8091,48 +8429,49 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="19">
+    <row r="3" spans="1:10" ht="19">
       <c r="B3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="C5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="C7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9">
+    <row r="9" spans="1:10">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="B10" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="C12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="C14" t="s">
         <v>74</v>
       </c>
@@ -8152,11 +8491,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="2:13">
-      <c r="B84" s="8" t="s">
+    <row r="85" spans="2:13">
+      <c r="B85" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="M85" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8169,15 +8508,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" thickBot="1">
+    <row r="1" spans="1:19" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -8185,33 +8524,36 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:19">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:19">
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:19">
       <c r="C7" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:19">
       <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:19">
       <c r="C9" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="S16" s="9"/>
     </row>
     <row r="19" spans="3:10">
       <c r="J19" s="5"/>
@@ -8257,8 +8599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14613239-0AFF-A840-9625-1EA23D1CFAB5}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -8330,8 +8672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD6A5E1-43DC-9645-BD19-A608B502712C}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -8483,8 +8825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A99761-CE5F-4344-9B4A-8379F69AA498}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -8593,7 +8935,7 @@
     </row>
     <row r="40" spans="2:14">
       <c r="C40" s="6" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="2:14">
@@ -8603,17 +8945,17 @@
     </row>
     <row r="43" spans="2:14">
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:14">
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:14">
       <c r="C45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:14">
@@ -8650,43 +8992,43 @@
     </row>
     <row r="50" spans="3:8">
       <c r="F50" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="F54" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="F55" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="F56" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -8700,8 +9042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9763009B-5194-5647-9DDC-FB63DD3CB246}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -8723,37 +9065,37 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8766,17 +9108,17 @@
     </row>
     <row r="16" spans="1:4" ht="19" thickBot="1">
       <c r="B16" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="D18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="19" thickBot="1">
@@ -8786,20 +9128,20 @@
     </row>
     <row r="22" spans="2:11" ht="19" thickBot="1">
       <c r="I22" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="19" thickBot="1">
@@ -8807,12 +9149,12 @@
     </row>
     <row r="27" spans="2:11" ht="19" thickBot="1">
       <c r="B27" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/システム論理説明/システム構成.xlsx
+++ b/システム論理説明/システム構成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishidayuki/Desktop/気象データ明細出力_システム全容doc/システム論理説明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C715327-20E4-DB41-88C3-BB4392C8D9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113A1682-A020-5F49-871E-3BE2BBA5DCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム概要" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>##システム構成</t>
     <phoneticPr fontId="1"/>
@@ -210,77 +210,6 @@
     <t>2.バッチの並列動作について</t>
     <rPh sb="6" eb="10">
       <t>ヘイレテゥ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>一人のユーザーのバッチ処理は、溜まったキューは直列でしか動作をしない制限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>をかけていますが、</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>タマッタ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>チョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ユーザー間のバッチプロセスは、並列に動作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>をするようにしています。</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ユーザーカn</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘイレテゥ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ドウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -352,13 +281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一人のユーザーのバッチ処理で、</t>
-    <rPh sb="0" eb="2">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジョブキューテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -678,57 +600,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本システムのバッチ基盤では、ユーザーID単位での並列動作を許しています。</t>
-    <rPh sb="0" eb="1">
-      <t>ホn</t>
-    </rPh>
-    <rPh sb="24" eb="28">
-      <t>ヘイレテゥ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ユルセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>(1ユーザーでの並列処理を許可しない理由は、1ユーザーIDでの並列を許可してしまうと</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>サーバーの負荷が増大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>するためです。)</t>
-    </r>
-    <rPh sb="8" eb="12">
-      <t>ヘイレテゥ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>①</t>
     </r>
@@ -769,40 +640,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一人のユーザーが、①「新規作成バッチ」と②「エラーファイル作成バッチ」、これらを並列に動作させることは許可しています。(サーバーに影響が少ないため)</t>
-    <rPh sb="0" eb="2">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヘイレテゥ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>キョカシテ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>スクナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①の「新規ファイル作成バッチ」は溜まっているキューを元に動作をし続けますが、</t>
     <rPh sb="3" eb="11">
       <t>シンキ</t>
@@ -815,28 +652,6 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①の「新規ファイル作成バッチ」の処理を並列に動作させることは禁止にしていますが、</t>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘイレテゥ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キンセィ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1430,6 +1245,78 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>本システムのバッチ基盤では、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ユーザーIDごとに固定の一定数の並列処理を許可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>しております。(2022/10/06時点では5多重)</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジテn</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>タジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(宅内の小規模サーバーのため、負荷を考慮してバッチ多重に増減はございます)</t>
+    <rPh sb="1" eb="3">
+      <t>タクナイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショウキボ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フカヲ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゾウゲn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1584,7 +1471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1602,7 +1489,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4869,13 +4755,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>586827</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>35034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>525517</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>43793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4919,13 +4805,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>411655</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>183926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>13471</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>131374</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4990,13 +4876,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>474736</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>59277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>604344</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>105105</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5050,13 +4936,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>478239</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>202916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>595586</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>218965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5110,13 +4996,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>432675</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>82326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>595586</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>29775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5198,13 +5084,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>73440</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>12132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>376619</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>131379</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5258,13 +5144,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85702</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>155773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>388881</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>47296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5318,13 +5204,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>455445</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>122621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28372</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>156604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5368,13 +5254,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>481743</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>127592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>599090</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5428,13 +5314,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>444937</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>33277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>210207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5508,13 +5394,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76943</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>190807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>380123</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>82330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5568,13 +5454,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>89205</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>106724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>392385</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>225971</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5628,13 +5514,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3503</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>616606</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5678,13 +5564,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>543034</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>175174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>543034</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>35034</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5732,13 +5618,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>490502</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>83798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>607849</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>99846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5792,13 +5678,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485227</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>213704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>648138</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>161154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5864,13 +5750,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>485247</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>17233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>602594</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>33281</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5924,13 +5810,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6371,8 +6257,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9794240" y="5681980"/>
-          <a:ext cx="571500" cy="358800"/>
+          <a:off x="9791207" y="5651462"/>
+          <a:ext cx="571311" cy="356525"/>
           <a:chOff x="7759700" y="2946400"/>
           <a:chExt cx="2146300" cy="1425600"/>
         </a:xfrm>
@@ -8415,88 +8301,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F7D51F-5FF9-0049-A3D4-BE219A225C44}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R78" sqref="R78"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" thickBot="1">
+    <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="19">
+    <row r="3" spans="1:4" ht="19">
       <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="C4" t="s">
+    <row r="10" spans="1:4">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="C5" t="s">
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="2:13">
       <c r="C81" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="2:13">
       <c r="C82" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="2:13">
       <c r="B85" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8511,14 +8393,14 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:19" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8539,12 +8421,12 @@
     </row>
     <row r="7" spans="1:19">
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -8565,7 +8447,7 @@
     </row>
     <row r="29" spans="3:10">
       <c r="C29" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="3:10">
@@ -8575,12 +8457,12 @@
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="3:3">
@@ -8607,7 +8489,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8623,7 +8505,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8643,12 +8525,12 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -8670,17 +8552,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD6A5E1-43DC-9645-BD19-A608B502712C}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8701,7 +8583,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8725,93 +8607,70 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="B14" s="1"/>
+      <c r="C14" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4">
+      <c r="B15" s="1"/>
       <c r="C15" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="C16" s="6" t="s">
+    <row r="18" spans="2:5">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="C17" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:5">
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="C21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="C20" t="s">
+    <row r="23" spans="2:5">
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" t="s">
+    <row r="28" spans="2:5">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="E30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="C26" t="s">
+    <row r="39" spans="10:12">
+      <c r="J39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="C28" t="s">
+    <row r="45" spans="10:12">
+      <c r="L45" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="C30" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="E35" s="1" t="s">
+    <row r="56" spans="4:4">
+      <c r="D56" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="J44" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="4:12">
-      <c r="L50" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="4:12">
-      <c r="D61" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -8825,8 +8684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A99761-CE5F-4344-9B4A-8379F69AA498}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView showGridLines="0" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -8837,7 +8696,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8853,109 +8712,109 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="3:10">
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:14">
       <c r="C33" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:14">
       <c r="C34" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:14">
       <c r="C35" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:14">
       <c r="C36" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:14">
       <c r="C39" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:14">
       <c r="C40" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:14">
       <c r="C41" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:14">
       <c r="C43" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:14">
       <c r="C44" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:14">
       <c r="C45" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:14">
@@ -8992,43 +8851,43 @@
     </row>
     <row r="50" spans="3:8">
       <c r="F50" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="F54" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="F55" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="F56" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -9042,7 +8901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9763009B-5194-5647-9DDC-FB63DD3CB246}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -9054,7 +8913,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9065,37 +8924,37 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9103,45 +8962,45 @@
     </row>
     <row r="15" spans="1:4" ht="19" thickBot="1">
       <c r="B15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19" thickBot="1">
       <c r="B16" s="12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="D17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="D18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="19" thickBot="1">
       <c r="K21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="19" thickBot="1">
       <c r="I22" s="12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="19" thickBot="1">
@@ -9149,12 +9008,12 @@
     </row>
     <row r="27" spans="2:11" ht="19" thickBot="1">
       <c r="B27" s="12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/システム論理説明/システム構成.xlsx
+++ b/システム論理説明/システム構成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishidayuki/Desktop/気象データ明細出力_システム全容doc/システム論理説明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113A1682-A020-5F49-871E-3BE2BBA5DCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAB692C-EE45-3141-8B1D-3E747147CF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム概要" sheetId="6" r:id="rId1"/>
@@ -1249,6 +1249,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>(宅内の小規模サーバーのため、負荷を考慮してバッチ多重に増減はございます)</t>
+    <rPh sb="1" eb="3">
+      <t>タクナイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショウキボ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フカヲ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゾウゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>本システムのバッチ基盤では、</t>
     </r>
@@ -1273,7 +1292,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>しております。(2022/10/06時点では5多重)</t>
+      <t>しております。(2022/10/06時点では3多重)</t>
     </r>
     <rPh sb="0" eb="1">
       <t>ホn</t>
@@ -1298,25 +1317,6 @@
     </rPh>
     <rPh sb="60" eb="62">
       <t>タジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(宅内の小規模サーバーのため、負荷を考慮してバッチ多重に増減はございます)</t>
-    <rPh sb="1" eb="3">
-      <t>タクナイ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ショウキボ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フカヲ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウリョ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ゾウゲn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8301,7 +8301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F7D51F-5FF9-0049-A3D4-BE219A225C44}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
@@ -8554,8 +8554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD6A5E1-43DC-9645-BD19-A608B502712C}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -8609,13 +8609,13 @@
     <row r="14" spans="1:4">
       <c r="B14" s="1"/>
       <c r="C14" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1"/>
       <c r="C15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:5">
